--- a/forms/app/pcime_c_followup.xlsx
+++ b/forms/app/pcime_c_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="516">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -1043,6 +1043,18 @@
   </si>
   <si>
     <t xml:space="preserve">${t_treat_for_cough_cold} = 'true' or ${t_treat_for_pneumonia} = 'true'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breath_timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Press timer and count number of breaths for a full 60 seconds**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Appuyez sur la minuterie et comptez le nombre de respirations pendant 60 secondes.**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">countdown-timer</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -2224,9 +2236,9 @@
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D191" activeCellId="0" sqref="D191"/>
+      <selection pane="bottomLeft" activeCell="E116" activeCellId="0" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8433,22 +8445,22 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="C115" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
@@ -8488,31 +8500,31 @@
       <c r="AR115" s="5"/>
       <c r="AS115" s="7"/>
     </row>
-    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B116" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="B116" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="C116" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>303</v>
       </c>
+      <c r="E116" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F116" s="5"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="9"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="9"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
@@ -8543,7 +8555,7 @@
       <c r="AP116" s="5"/>
       <c r="AQ116" s="5"/>
       <c r="AR116" s="5"/>
-      <c r="AS116" s="5"/>
+      <c r="AS116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="5" t="s">
@@ -8603,131 +8615,131 @@
       <c r="AS117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="5"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+      <c r="AG118" s="5"/>
+      <c r="AH118" s="5"/>
+      <c r="AI118" s="5"/>
+      <c r="AJ118" s="5"/>
+      <c r="AK118" s="5"/>
+      <c r="AL118" s="5"/>
+      <c r="AM118" s="5"/>
+      <c r="AN118" s="5"/>
+      <c r="AO118" s="5"/>
+      <c r="AP118" s="5"/>
+      <c r="AQ118" s="5"/>
+      <c r="AR118" s="5"/>
+      <c r="AS118" s="5"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7" t="s">
+      <c r="B119" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="7"/>
-      <c r="W118" s="7"/>
-      <c r="X118" s="7"/>
-      <c r="Y118" s="7"/>
-      <c r="Z118" s="7"/>
-      <c r="AA118" s="7"/>
-      <c r="AB118" s="7"/>
-      <c r="AC118" s="7"/>
-      <c r="AD118" s="7"/>
-      <c r="AE118" s="7"/>
-      <c r="AF118" s="7"/>
-      <c r="AG118" s="7"/>
-      <c r="AH118" s="7"/>
-      <c r="AI118" s="7"/>
-      <c r="AJ118" s="7"/>
-      <c r="AK118" s="7"/>
-      <c r="AL118" s="7"/>
-      <c r="AM118" s="7"/>
-      <c r="AN118" s="7"/>
-      <c r="AO118" s="7"/>
-      <c r="AP118" s="7"/>
-      <c r="AQ118" s="7"/>
-      <c r="AR118" s="7"/>
-      <c r="AS118" s="5"/>
-    </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B119" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="9"/>
-      <c r="K119" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="L119" s="5"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="9"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5"/>
-      <c r="V119" s="5"/>
-      <c r="W119" s="5"/>
-      <c r="X119" s="5"/>
-      <c r="Y119" s="5"/>
-      <c r="Z119" s="5"/>
-      <c r="AA119" s="5"/>
-      <c r="AB119" s="5"/>
-      <c r="AC119" s="5"/>
-      <c r="AD119" s="5"/>
-      <c r="AE119" s="5"/>
-      <c r="AF119" s="5"/>
-      <c r="AG119" s="5"/>
-      <c r="AH119" s="5"/>
-      <c r="AI119" s="5"/>
-      <c r="AJ119" s="5"/>
-      <c r="AK119" s="5"/>
-      <c r="AL119" s="5"/>
-      <c r="AM119" s="5"/>
-      <c r="AN119" s="5"/>
-      <c r="AO119" s="5"/>
-      <c r="AP119" s="5"/>
-      <c r="AQ119" s="5"/>
-      <c r="AR119" s="5"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="7"/>
+      <c r="AA119" s="7"/>
+      <c r="AB119" s="7"/>
+      <c r="AC119" s="7"/>
+      <c r="AD119" s="7"/>
+      <c r="AE119" s="7"/>
+      <c r="AF119" s="7"/>
+      <c r="AG119" s="7"/>
+      <c r="AH119" s="7"/>
+      <c r="AI119" s="7"/>
+      <c r="AJ119" s="7"/>
+      <c r="AK119" s="7"/>
+      <c r="AL119" s="7"/>
+      <c r="AM119" s="7"/>
+      <c r="AN119" s="7"/>
+      <c r="AO119" s="7"/>
+      <c r="AP119" s="7"/>
+      <c r="AQ119" s="7"/>
+      <c r="AR119" s="7"/>
       <c r="AS119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>314</v>
+        <v>81</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>315</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -8735,7 +8747,9 @@
       <c r="H120" s="5"/>
       <c r="I120" s="8"/>
       <c r="J120" s="9"/>
-      <c r="K120" s="5"/>
+      <c r="K120" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="L120" s="5"/>
       <c r="M120" s="8"/>
       <c r="N120" s="9"/>
@@ -8772,541 +8786,537 @@
       <c r="AS120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
+      <c r="AJ121" s="5"/>
+      <c r="AK121" s="5"/>
+      <c r="AL121" s="5"/>
+      <c r="AM121" s="5"/>
+      <c r="AN121" s="5"/>
+      <c r="AO121" s="5"/>
+      <c r="AP121" s="5"/>
+      <c r="AQ121" s="5"/>
+      <c r="AR121" s="5"/>
+      <c r="AS121" s="5"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
-      <c r="Z121" s="7"/>
-      <c r="AA121" s="7"/>
-      <c r="AB121" s="7"/>
-      <c r="AC121" s="7"/>
-      <c r="AD121" s="7"/>
-      <c r="AE121" s="7"/>
-      <c r="AF121" s="7"/>
-      <c r="AG121" s="7"/>
-      <c r="AH121" s="7"/>
-      <c r="AI121" s="7"/>
-      <c r="AJ121" s="7"/>
-      <c r="AK121" s="7"/>
-      <c r="AL121" s="7"/>
-      <c r="AM121" s="7"/>
-      <c r="AN121" s="7"/>
-      <c r="AO121" s="7"/>
-      <c r="AP121" s="7"/>
-      <c r="AQ121" s="7"/>
-      <c r="AR121" s="7"/>
-      <c r="AS121" s="5"/>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5"/>
-      <c r="V122" s="5"/>
-      <c r="W122" s="5"/>
-      <c r="X122" s="5"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
-      <c r="AA122" s="5"/>
-      <c r="AB122" s="5"/>
-      <c r="AC122" s="5"/>
-      <c r="AD122" s="5"/>
-      <c r="AE122" s="5"/>
-      <c r="AF122" s="5"/>
-      <c r="AG122" s="5"/>
-      <c r="AH122" s="5"/>
-      <c r="AI122" s="5"/>
-      <c r="AJ122" s="5"/>
-      <c r="AK122" s="5"/>
-      <c r="AL122" s="5"/>
-      <c r="AM122" s="5"/>
-      <c r="AN122" s="5"/>
-      <c r="AO122" s="5"/>
-      <c r="AP122" s="5"/>
-      <c r="AQ122" s="5"/>
-      <c r="AR122" s="5"/>
-      <c r="AS122" s="7"/>
-    </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+      <c r="W122" s="7"/>
+      <c r="X122" s="7"/>
+      <c r="Y122" s="7"/>
+      <c r="Z122" s="7"/>
+      <c r="AA122" s="7"/>
+      <c r="AB122" s="7"/>
+      <c r="AC122" s="7"/>
+      <c r="AD122" s="7"/>
+      <c r="AE122" s="7"/>
+      <c r="AF122" s="7"/>
+      <c r="AG122" s="7"/>
+      <c r="AH122" s="7"/>
+      <c r="AI122" s="7"/>
+      <c r="AJ122" s="7"/>
+      <c r="AK122" s="7"/>
+      <c r="AL122" s="7"/>
+      <c r="AM122" s="7"/>
+      <c r="AN122" s="7"/>
+      <c r="AO122" s="7"/>
+      <c r="AP122" s="7"/>
+      <c r="AQ122" s="7"/>
+      <c r="AR122" s="7"/>
+      <c r="AS122" s="5"/>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
+      <c r="Y123" s="5"/>
+      <c r="Z123" s="5"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
+      <c r="AE123" s="5"/>
+      <c r="AF123" s="5"/>
+      <c r="AG123" s="5"/>
+      <c r="AH123" s="5"/>
+      <c r="AI123" s="5"/>
+      <c r="AJ123" s="5"/>
+      <c r="AK123" s="5"/>
+      <c r="AL123" s="5"/>
+      <c r="AM123" s="5"/>
+      <c r="AN123" s="5"/>
+      <c r="AO123" s="5"/>
+      <c r="AP123" s="5"/>
+      <c r="AQ123" s="5"/>
+      <c r="AR123" s="5"/>
+      <c r="AS123" s="7"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7" t="s">
+      <c r="B124" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="7"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="7"/>
-      <c r="W123" s="7"/>
-      <c r="X123" s="7"/>
-      <c r="Y123" s="7"/>
-      <c r="Z123" s="7"/>
-      <c r="AA123" s="7"/>
-      <c r="AB123" s="7"/>
-      <c r="AC123" s="7"/>
-      <c r="AD123" s="7"/>
-      <c r="AE123" s="7"/>
-      <c r="AF123" s="7"/>
-      <c r="AG123" s="7"/>
-      <c r="AH123" s="7"/>
-      <c r="AI123" s="7"/>
-      <c r="AJ123" s="7"/>
-      <c r="AK123" s="7"/>
-      <c r="AL123" s="7"/>
-      <c r="AM123" s="7"/>
-      <c r="AN123" s="7"/>
-      <c r="AO123" s="7"/>
-      <c r="AP123" s="7"/>
-      <c r="AQ123" s="7"/>
-      <c r="AR123" s="7"/>
-      <c r="AS123" s="5"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="5" t="s">
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
+      <c r="S124" s="7"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+      <c r="W124" s="7"/>
+      <c r="X124" s="7"/>
+      <c r="Y124" s="7"/>
+      <c r="Z124" s="7"/>
+      <c r="AA124" s="7"/>
+      <c r="AB124" s="7"/>
+      <c r="AC124" s="7"/>
+      <c r="AD124" s="7"/>
+      <c r="AE124" s="7"/>
+      <c r="AF124" s="7"/>
+      <c r="AG124" s="7"/>
+      <c r="AH124" s="7"/>
+      <c r="AI124" s="7"/>
+      <c r="AJ124" s="7"/>
+      <c r="AK124" s="7"/>
+      <c r="AL124" s="7"/>
+      <c r="AM124" s="7"/>
+      <c r="AN124" s="7"/>
+      <c r="AO124" s="7"/>
+      <c r="AP124" s="7"/>
+      <c r="AQ124" s="7"/>
+      <c r="AR124" s="7"/>
+      <c r="AS124" s="5"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B124" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="L124" s="5"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5"/>
-      <c r="V124" s="5"/>
-      <c r="W124" s="5"/>
-      <c r="X124" s="5"/>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="5"/>
-      <c r="AA124" s="5"/>
-      <c r="AB124" s="5"/>
-      <c r="AC124" s="5"/>
-      <c r="AD124" s="5"/>
-      <c r="AE124" s="5"/>
-      <c r="AF124" s="5"/>
-      <c r="AG124" s="5"/>
-      <c r="AH124" s="5"/>
-      <c r="AI124" s="5"/>
-      <c r="AJ124" s="5"/>
-      <c r="AK124" s="5"/>
-      <c r="AL124" s="5"/>
-      <c r="AM124" s="5"/>
-      <c r="AN124" s="5"/>
-      <c r="AO124" s="5"/>
-      <c r="AP124" s="5"/>
-      <c r="AQ124" s="5"/>
-      <c r="AR124" s="5"/>
-      <c r="AS124" s="5"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
+      <c r="B125" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="L125" s="5"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
+      <c r="W125" s="5"/>
+      <c r="X125" s="5"/>
+      <c r="Y125" s="5"/>
+      <c r="Z125" s="5"/>
+      <c r="AA125" s="5"/>
+      <c r="AB125" s="5"/>
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="5"/>
+      <c r="AE125" s="5"/>
+      <c r="AF125" s="5"/>
+      <c r="AG125" s="5"/>
+      <c r="AH125" s="5"/>
+      <c r="AI125" s="5"/>
+      <c r="AJ125" s="5"/>
+      <c r="AK125" s="5"/>
+      <c r="AL125" s="5"/>
+      <c r="AM125" s="5"/>
+      <c r="AN125" s="5"/>
+      <c r="AO125" s="5"/>
+      <c r="AP125" s="5"/>
+      <c r="AQ125" s="5"/>
+      <c r="AR125" s="5"/>
+      <c r="AS125" s="5"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="7"/>
-      <c r="R125" s="7"/>
-      <c r="S125" s="7"/>
-      <c r="T125" s="7"/>
-      <c r="U125" s="7"/>
-      <c r="V125" s="7"/>
-      <c r="W125" s="7"/>
-      <c r="X125" s="7"/>
-      <c r="Y125" s="7"/>
-      <c r="Z125" s="7"/>
-      <c r="AA125" s="7"/>
-      <c r="AB125" s="7"/>
-      <c r="AC125" s="7"/>
-      <c r="AD125" s="7"/>
-      <c r="AE125" s="7"/>
-      <c r="AF125" s="7"/>
-      <c r="AG125" s="7"/>
-      <c r="AH125" s="7"/>
-      <c r="AI125" s="7"/>
-      <c r="AJ125" s="7"/>
-      <c r="AK125" s="7"/>
-      <c r="AL125" s="7"/>
-      <c r="AM125" s="7"/>
-      <c r="AN125" s="7"/>
-      <c r="AO125" s="7"/>
-      <c r="AP125" s="7"/>
-      <c r="AQ125" s="7"/>
-      <c r="AR125" s="7"/>
-      <c r="AS125" s="5"/>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="5"/>
-      <c r="V126" s="5"/>
-      <c r="W126" s="5"/>
-      <c r="X126" s="5"/>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="5"/>
-      <c r="AA126" s="5"/>
-      <c r="AB126" s="5"/>
-      <c r="AC126" s="5"/>
-      <c r="AD126" s="5"/>
-      <c r="AE126" s="5"/>
-      <c r="AF126" s="5"/>
-      <c r="AG126" s="5"/>
-      <c r="AH126" s="5"/>
-      <c r="AI126" s="5"/>
-      <c r="AJ126" s="5"/>
-      <c r="AK126" s="5"/>
-      <c r="AL126" s="5"/>
-      <c r="AM126" s="5"/>
-      <c r="AN126" s="5"/>
-      <c r="AO126" s="5"/>
-      <c r="AP126" s="5"/>
-      <c r="AQ126" s="5"/>
-      <c r="AR126" s="5"/>
-      <c r="AS126" s="7"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="7"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7"/>
+      <c r="T126" s="7"/>
+      <c r="U126" s="7"/>
+      <c r="V126" s="7"/>
+      <c r="W126" s="7"/>
+      <c r="X126" s="7"/>
+      <c r="Y126" s="7"/>
+      <c r="Z126" s="7"/>
+      <c r="AA126" s="7"/>
+      <c r="AB126" s="7"/>
+      <c r="AC126" s="7"/>
+      <c r="AD126" s="7"/>
+      <c r="AE126" s="7"/>
+      <c r="AF126" s="7"/>
+      <c r="AG126" s="7"/>
+      <c r="AH126" s="7"/>
+      <c r="AI126" s="7"/>
+      <c r="AJ126" s="7"/>
+      <c r="AK126" s="7"/>
+      <c r="AL126" s="7"/>
+      <c r="AM126" s="7"/>
+      <c r="AN126" s="7"/>
+      <c r="AO126" s="7"/>
+      <c r="AP126" s="7"/>
+      <c r="AQ126" s="7"/>
+      <c r="AR126" s="7"/>
+      <c r="AS126" s="5"/>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="5"/>
+      <c r="W127" s="5"/>
+      <c r="X127" s="5"/>
+      <c r="Y127" s="5"/>
+      <c r="Z127" s="5"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="5"/>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="5"/>
+      <c r="AF127" s="5"/>
+      <c r="AG127" s="5"/>
+      <c r="AH127" s="5"/>
+      <c r="AI127" s="5"/>
+      <c r="AJ127" s="5"/>
+      <c r="AK127" s="5"/>
+      <c r="AL127" s="5"/>
+      <c r="AM127" s="5"/>
+      <c r="AN127" s="5"/>
+      <c r="AO127" s="5"/>
+      <c r="AP127" s="5"/>
+      <c r="AQ127" s="5"/>
+      <c r="AR127" s="5"/>
+      <c r="AS127" s="7"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
-      <c r="R127" s="7"/>
-      <c r="S127" s="7"/>
-      <c r="T127" s="7"/>
-      <c r="U127" s="7"/>
-      <c r="V127" s="7"/>
-      <c r="W127" s="7"/>
-      <c r="X127" s="7"/>
-      <c r="Y127" s="7"/>
-      <c r="Z127" s="7"/>
-      <c r="AA127" s="7"/>
-      <c r="AB127" s="7"/>
-      <c r="AC127" s="7"/>
-      <c r="AD127" s="7"/>
-      <c r="AE127" s="7"/>
-      <c r="AF127" s="7"/>
-      <c r="AG127" s="7"/>
-      <c r="AH127" s="7"/>
-      <c r="AI127" s="7"/>
-      <c r="AJ127" s="7"/>
-      <c r="AK127" s="7"/>
-      <c r="AL127" s="7"/>
-      <c r="AM127" s="7"/>
-      <c r="AN127" s="7"/>
-      <c r="AO127" s="7"/>
-      <c r="AP127" s="7"/>
-      <c r="AQ127" s="7"/>
-      <c r="AR127" s="7"/>
-      <c r="AS127" s="5"/>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
-      <c r="W128" s="5"/>
-      <c r="X128" s="5"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
-      <c r="AA128" s="5"/>
-      <c r="AB128" s="5"/>
-      <c r="AC128" s="5"/>
-      <c r="AD128" s="5"/>
-      <c r="AE128" s="5"/>
-      <c r="AF128" s="5"/>
-      <c r="AG128" s="5"/>
-      <c r="AH128" s="5"/>
-      <c r="AI128" s="5"/>
-      <c r="AJ128" s="5"/>
-      <c r="AK128" s="5"/>
-      <c r="AL128" s="5"/>
-      <c r="AM128" s="5"/>
-      <c r="AN128" s="5"/>
-      <c r="AO128" s="5"/>
-      <c r="AP128" s="5"/>
-      <c r="AQ128" s="5"/>
-      <c r="AR128" s="5"/>
-      <c r="AS128" s="7"/>
-    </row>
-    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="s">
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="7"/>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="7"/>
+      <c r="T128" s="7"/>
+      <c r="U128" s="7"/>
+      <c r="V128" s="7"/>
+      <c r="W128" s="7"/>
+      <c r="X128" s="7"/>
+      <c r="Y128" s="7"/>
+      <c r="Z128" s="7"/>
+      <c r="AA128" s="7"/>
+      <c r="AB128" s="7"/>
+      <c r="AC128" s="7"/>
+      <c r="AD128" s="7"/>
+      <c r="AE128" s="7"/>
+      <c r="AF128" s="7"/>
+      <c r="AG128" s="7"/>
+      <c r="AH128" s="7"/>
+      <c r="AI128" s="7"/>
+      <c r="AJ128" s="7"/>
+      <c r="AK128" s="7"/>
+      <c r="AL128" s="7"/>
+      <c r="AM128" s="7"/>
+      <c r="AN128" s="7"/>
+      <c r="AO128" s="7"/>
+      <c r="AP128" s="7"/>
+      <c r="AQ128" s="7"/>
+      <c r="AR128" s="7"/>
+      <c r="AS128" s="5"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="5"/>
+      <c r="N129" s="5"/>
+      <c r="O129" s="5"/>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="R129" s="5"/>
+      <c r="S129" s="5"/>
+      <c r="T129" s="5"/>
+      <c r="U129" s="5"/>
+      <c r="V129" s="5"/>
+      <c r="W129" s="5"/>
+      <c r="X129" s="5"/>
+      <c r="Y129" s="5"/>
+      <c r="Z129" s="5"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5"/>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+      <c r="AE129" s="5"/>
+      <c r="AF129" s="5"/>
+      <c r="AG129" s="5"/>
+      <c r="AH129" s="5"/>
+      <c r="AI129" s="5"/>
+      <c r="AJ129" s="5"/>
+      <c r="AK129" s="5"/>
+      <c r="AL129" s="5"/>
+      <c r="AM129" s="5"/>
+      <c r="AN129" s="5"/>
+      <c r="AO129" s="5"/>
+      <c r="AP129" s="5"/>
+      <c r="AQ129" s="5"/>
+      <c r="AR129" s="5"/>
+      <c r="AS129" s="7"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C129" s="7" t="s">
+      <c r="B130" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G129" s="7" t="s">
+      <c r="D130" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="7"/>
-      <c r="T129" s="7"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="7"/>
-      <c r="W129" s="7"/>
-      <c r="X129" s="7"/>
-      <c r="Y129" s="7"/>
-      <c r="Z129" s="7"/>
-      <c r="AA129" s="7"/>
-      <c r="AB129" s="7"/>
-      <c r="AC129" s="7"/>
-      <c r="AD129" s="7"/>
-      <c r="AE129" s="7"/>
-      <c r="AF129" s="7"/>
-      <c r="AG129" s="7"/>
-      <c r="AH129" s="7"/>
-      <c r="AI129" s="7"/>
-      <c r="AJ129" s="7"/>
-      <c r="AK129" s="7"/>
-      <c r="AL129" s="7"/>
-      <c r="AM129" s="7"/>
-      <c r="AN129" s="7"/>
-      <c r="AO129" s="7"/>
-      <c r="AP129" s="7"/>
-      <c r="AQ129" s="7"/>
-      <c r="AR129" s="7"/>
-      <c r="AS129" s="5"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="9"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
-      <c r="W130" s="5"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
-      <c r="AA130" s="5"/>
-      <c r="AB130" s="5"/>
-      <c r="AC130" s="5"/>
-      <c r="AD130" s="5"/>
-      <c r="AE130" s="5"/>
-      <c r="AF130" s="5"/>
-      <c r="AG130" s="5"/>
-      <c r="AH130" s="5"/>
-      <c r="AI130" s="5"/>
-      <c r="AJ130" s="5"/>
-      <c r="AK130" s="5"/>
-      <c r="AL130" s="5"/>
-      <c r="AM130" s="5"/>
-      <c r="AN130" s="5"/>
-      <c r="AO130" s="5"/>
-      <c r="AP130" s="5"/>
-      <c r="AQ130" s="5"/>
-      <c r="AR130" s="5"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="7"/>
+      <c r="T130" s="7"/>
+      <c r="U130" s="7"/>
+      <c r="V130" s="7"/>
+      <c r="W130" s="7"/>
+      <c r="X130" s="7"/>
+      <c r="Y130" s="7"/>
+      <c r="Z130" s="7"/>
+      <c r="AA130" s="7"/>
+      <c r="AB130" s="7"/>
+      <c r="AC130" s="7"/>
+      <c r="AD130" s="7"/>
+      <c r="AE130" s="7"/>
+      <c r="AF130" s="7"/>
+      <c r="AG130" s="7"/>
+      <c r="AH130" s="7"/>
+      <c r="AI130" s="7"/>
+      <c r="AJ130" s="7"/>
+      <c r="AK130" s="7"/>
+      <c r="AL130" s="7"/>
+      <c r="AM130" s="7"/>
+      <c r="AN130" s="7"/>
+      <c r="AO130" s="7"/>
+      <c r="AP130" s="7"/>
+      <c r="AQ130" s="7"/>
+      <c r="AR130" s="7"/>
       <c r="AS130" s="5"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>326</v>
+        <v>129</v>
+      </c>
+      <c r="B131" s="34" t="s">
+        <v>327</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="8"/>
       <c r="J131" s="9"/>
@@ -9348,20 +9358,24 @@
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="E132" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
+      <c r="G132" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="H132" s="5"/>
       <c r="I132" s="8"/>
       <c r="J132" s="9"/>
@@ -9403,24 +9417,20 @@
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E133" s="5"/>
       <c r="F133" s="5"/>
-      <c r="G133" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="8"/>
       <c r="J133" s="9"/>
@@ -9461,238 +9471,236 @@
       <c r="AS133" s="5"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
+      <c r="Y134" s="5"/>
+      <c r="Z134" s="5"/>
+      <c r="AA134" s="5"/>
+      <c r="AB134" s="5"/>
+      <c r="AC134" s="5"/>
+      <c r="AD134" s="5"/>
+      <c r="AE134" s="5"/>
+      <c r="AF134" s="5"/>
+      <c r="AG134" s="5"/>
+      <c r="AH134" s="5"/>
+      <c r="AI134" s="5"/>
+      <c r="AJ134" s="5"/>
+      <c r="AK134" s="5"/>
+      <c r="AL134" s="5"/>
+      <c r="AM134" s="5"/>
+      <c r="AN134" s="5"/>
+      <c r="AO134" s="5"/>
+      <c r="AP134" s="5"/>
+      <c r="AQ134" s="5"/>
+      <c r="AR134" s="5"/>
+      <c r="AS134" s="5"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
-      <c r="S134" s="7"/>
-      <c r="T134" s="7"/>
-      <c r="U134" s="7"/>
-      <c r="V134" s="7"/>
-      <c r="W134" s="7"/>
-      <c r="X134" s="7"/>
-      <c r="Y134" s="7"/>
-      <c r="Z134" s="7"/>
-      <c r="AA134" s="7"/>
-      <c r="AB134" s="7"/>
-      <c r="AC134" s="7"/>
-      <c r="AD134" s="7"/>
-      <c r="AE134" s="7"/>
-      <c r="AF134" s="7"/>
-      <c r="AG134" s="7"/>
-      <c r="AH134" s="7"/>
-      <c r="AI134" s="7"/>
-      <c r="AJ134" s="7"/>
-      <c r="AK134" s="7"/>
-      <c r="AL134" s="7"/>
-      <c r="AM134" s="7"/>
-      <c r="AN134" s="7"/>
-      <c r="AO134" s="7"/>
-      <c r="AP134" s="7"/>
-      <c r="AQ134" s="7"/>
-      <c r="AR134" s="7"/>
-      <c r="AS134" s="5"/>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5"/>
-      <c r="V135" s="5"/>
-      <c r="W135" s="5"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
-      <c r="AA135" s="5"/>
-      <c r="AB135" s="5"/>
-      <c r="AC135" s="5"/>
-      <c r="AD135" s="5"/>
-      <c r="AE135" s="5"/>
-      <c r="AF135" s="5"/>
-      <c r="AG135" s="5"/>
-      <c r="AH135" s="5"/>
-      <c r="AI135" s="5"/>
-      <c r="AJ135" s="5"/>
-      <c r="AK135" s="5"/>
-      <c r="AL135" s="5"/>
-      <c r="AM135" s="5"/>
-      <c r="AN135" s="5"/>
-      <c r="AO135" s="5"/>
-      <c r="AP135" s="5"/>
-      <c r="AQ135" s="5"/>
-      <c r="AR135" s="5"/>
-      <c r="AS135" s="7"/>
-    </row>
-    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="s">
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="7"/>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="7"/>
+      <c r="AA135" s="7"/>
+      <c r="AB135" s="7"/>
+      <c r="AC135" s="7"/>
+      <c r="AD135" s="7"/>
+      <c r="AE135" s="7"/>
+      <c r="AF135" s="7"/>
+      <c r="AG135" s="7"/>
+      <c r="AH135" s="7"/>
+      <c r="AI135" s="7"/>
+      <c r="AJ135" s="7"/>
+      <c r="AK135" s="7"/>
+      <c r="AL135" s="7"/>
+      <c r="AM135" s="7"/>
+      <c r="AN135" s="7"/>
+      <c r="AO135" s="7"/>
+      <c r="AP135" s="7"/>
+      <c r="AQ135" s="7"/>
+      <c r="AR135" s="7"/>
+      <c r="AS135" s="5"/>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="5"/>
+      <c r="T136" s="5"/>
+      <c r="U136" s="5"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
+      <c r="Y136" s="5"/>
+      <c r="Z136" s="5"/>
+      <c r="AA136" s="5"/>
+      <c r="AB136" s="5"/>
+      <c r="AC136" s="5"/>
+      <c r="AD136" s="5"/>
+      <c r="AE136" s="5"/>
+      <c r="AF136" s="5"/>
+      <c r="AG136" s="5"/>
+      <c r="AH136" s="5"/>
+      <c r="AI136" s="5"/>
+      <c r="AJ136" s="5"/>
+      <c r="AK136" s="5"/>
+      <c r="AL136" s="5"/>
+      <c r="AM136" s="5"/>
+      <c r="AN136" s="5"/>
+      <c r="AO136" s="5"/>
+      <c r="AP136" s="5"/>
+      <c r="AQ136" s="5"/>
+      <c r="AR136" s="5"/>
+      <c r="AS136" s="7"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="G136" s="7" t="s">
+      <c r="B137" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="7"/>
-      <c r="Q136" s="7"/>
-      <c r="R136" s="7"/>
-      <c r="S136" s="7"/>
-      <c r="T136" s="7"/>
-      <c r="U136" s="7"/>
-      <c r="V136" s="7"/>
-      <c r="W136" s="7"/>
-      <c r="X136" s="7"/>
-      <c r="Y136" s="7"/>
-      <c r="Z136" s="7"/>
-      <c r="AA136" s="7"/>
-      <c r="AB136" s="7"/>
-      <c r="AC136" s="7"/>
-      <c r="AD136" s="7"/>
-      <c r="AE136" s="7"/>
-      <c r="AF136" s="7"/>
-      <c r="AG136" s="7"/>
-      <c r="AH136" s="7"/>
-      <c r="AI136" s="7"/>
-      <c r="AJ136" s="7"/>
-      <c r="AK136" s="7"/>
-      <c r="AL136" s="7"/>
-      <c r="AM136" s="7"/>
-      <c r="AN136" s="7"/>
-      <c r="AO136" s="7"/>
-      <c r="AP136" s="7"/>
-      <c r="AQ136" s="7"/>
-      <c r="AR136" s="7"/>
-      <c r="AS136" s="5"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B137" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H137" s="5"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5"/>
-      <c r="V137" s="5"/>
-      <c r="W137" s="5"/>
-      <c r="X137" s="5"/>
-      <c r="Y137" s="5"/>
-      <c r="Z137" s="5"/>
-      <c r="AA137" s="5"/>
-      <c r="AB137" s="5"/>
-      <c r="AC137" s="5"/>
-      <c r="AD137" s="5"/>
-      <c r="AE137" s="5"/>
-      <c r="AF137" s="5"/>
-      <c r="AG137" s="5"/>
-      <c r="AH137" s="5"/>
-      <c r="AI137" s="5"/>
-      <c r="AJ137" s="5"/>
-      <c r="AK137" s="5"/>
-      <c r="AL137" s="5"/>
-      <c r="AM137" s="5"/>
-      <c r="AN137" s="5"/>
-      <c r="AO137" s="5"/>
-      <c r="AP137" s="5"/>
-      <c r="AQ137" s="5"/>
-      <c r="AR137" s="5"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7"/>
+      <c r="Z137" s="7"/>
+      <c r="AA137" s="7"/>
+      <c r="AB137" s="7"/>
+      <c r="AC137" s="7"/>
+      <c r="AD137" s="7"/>
+      <c r="AE137" s="7"/>
+      <c r="AF137" s="7"/>
+      <c r="AG137" s="7"/>
+      <c r="AH137" s="7"/>
+      <c r="AI137" s="7"/>
+      <c r="AJ137" s="7"/>
+      <c r="AK137" s="7"/>
+      <c r="AL137" s="7"/>
+      <c r="AM137" s="7"/>
+      <c r="AN137" s="7"/>
+      <c r="AO137" s="7"/>
+      <c r="AP137" s="7"/>
+      <c r="AQ137" s="7"/>
+      <c r="AR137" s="7"/>
       <c r="AS137" s="5"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>342</v>
+      <c r="B138" s="34" t="s">
+        <v>343</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>345</v>
-      </c>
+      <c r="F138" s="5"/>
       <c r="G138" s="5" t="s">
         <v>184</v>
       </c>
@@ -9736,238 +9744,238 @@
       <c r="AS138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H139" s="5"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5"/>
+      <c r="V139" s="5"/>
+      <c r="W139" s="5"/>
+      <c r="X139" s="5"/>
+      <c r="Y139" s="5"/>
+      <c r="Z139" s="5"/>
+      <c r="AA139" s="5"/>
+      <c r="AB139" s="5"/>
+      <c r="AC139" s="5"/>
+      <c r="AD139" s="5"/>
+      <c r="AE139" s="5"/>
+      <c r="AF139" s="5"/>
+      <c r="AG139" s="5"/>
+      <c r="AH139" s="5"/>
+      <c r="AI139" s="5"/>
+      <c r="AJ139" s="5"/>
+      <c r="AK139" s="5"/>
+      <c r="AL139" s="5"/>
+      <c r="AM139" s="5"/>
+      <c r="AN139" s="5"/>
+      <c r="AO139" s="5"/>
+      <c r="AP139" s="5"/>
+      <c r="AQ139" s="5"/>
+      <c r="AR139" s="5"/>
+      <c r="AS139" s="5"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="7"/>
-      <c r="R139" s="7"/>
-      <c r="S139" s="7"/>
-      <c r="T139" s="7"/>
-      <c r="U139" s="7"/>
-      <c r="V139" s="7"/>
-      <c r="W139" s="7"/>
-      <c r="X139" s="7"/>
-      <c r="Y139" s="7"/>
-      <c r="Z139" s="7"/>
-      <c r="AA139" s="7"/>
-      <c r="AB139" s="7"/>
-      <c r="AC139" s="7"/>
-      <c r="AD139" s="7"/>
-      <c r="AE139" s="7"/>
-      <c r="AF139" s="7"/>
-      <c r="AG139" s="7"/>
-      <c r="AH139" s="7"/>
-      <c r="AI139" s="7"/>
-      <c r="AJ139" s="7"/>
-      <c r="AK139" s="7"/>
-      <c r="AL139" s="7"/>
-      <c r="AM139" s="7"/>
-      <c r="AN139" s="7"/>
-      <c r="AO139" s="7"/>
-      <c r="AP139" s="7"/>
-      <c r="AQ139" s="7"/>
-      <c r="AR139" s="7"/>
-      <c r="AS139" s="5"/>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5"/>
-      <c r="V140" s="5"/>
-      <c r="W140" s="5"/>
-      <c r="X140" s="5"/>
-      <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
-      <c r="AA140" s="5"/>
-      <c r="AB140" s="5"/>
-      <c r="AC140" s="5"/>
-      <c r="AD140" s="5"/>
-      <c r="AE140" s="5"/>
-      <c r="AF140" s="5"/>
-      <c r="AG140" s="5"/>
-      <c r="AH140" s="5"/>
-      <c r="AI140" s="5"/>
-      <c r="AJ140" s="5"/>
-      <c r="AK140" s="5"/>
-      <c r="AL140" s="5"/>
-      <c r="AM140" s="5"/>
-      <c r="AN140" s="5"/>
-      <c r="AO140" s="5"/>
-      <c r="AP140" s="5"/>
-      <c r="AQ140" s="5"/>
-      <c r="AR140" s="5"/>
-      <c r="AS140" s="7"/>
-    </row>
-    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7"/>
+      <c r="T140" s="7"/>
+      <c r="U140" s="7"/>
+      <c r="V140" s="7"/>
+      <c r="W140" s="7"/>
+      <c r="X140" s="7"/>
+      <c r="Y140" s="7"/>
+      <c r="Z140" s="7"/>
+      <c r="AA140" s="7"/>
+      <c r="AB140" s="7"/>
+      <c r="AC140" s="7"/>
+      <c r="AD140" s="7"/>
+      <c r="AE140" s="7"/>
+      <c r="AF140" s="7"/>
+      <c r="AG140" s="7"/>
+      <c r="AH140" s="7"/>
+      <c r="AI140" s="7"/>
+      <c r="AJ140" s="7"/>
+      <c r="AK140" s="7"/>
+      <c r="AL140" s="7"/>
+      <c r="AM140" s="7"/>
+      <c r="AN140" s="7"/>
+      <c r="AO140" s="7"/>
+      <c r="AP140" s="7"/>
+      <c r="AQ140" s="7"/>
+      <c r="AR140" s="7"/>
+      <c r="AS140" s="5"/>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+      <c r="Z141" s="5"/>
+      <c r="AA141" s="5"/>
+      <c r="AB141" s="5"/>
+      <c r="AC141" s="5"/>
+      <c r="AD141" s="5"/>
+      <c r="AE141" s="5"/>
+      <c r="AF141" s="5"/>
+      <c r="AG141" s="5"/>
+      <c r="AH141" s="5"/>
+      <c r="AI141" s="5"/>
+      <c r="AJ141" s="5"/>
+      <c r="AK141" s="5"/>
+      <c r="AL141" s="5"/>
+      <c r="AM141" s="5"/>
+      <c r="AN141" s="5"/>
+      <c r="AO141" s="5"/>
+      <c r="AP141" s="5"/>
+      <c r="AQ141" s="5"/>
+      <c r="AR141" s="5"/>
+      <c r="AS141" s="7"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="G141" s="7" t="s">
+      <c r="B142" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E142" s="7"/>
+      <c r="F142" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="7"/>
-      <c r="R141" s="7"/>
-      <c r="S141" s="7"/>
-      <c r="T141" s="7"/>
-      <c r="U141" s="7"/>
-      <c r="V141" s="7"/>
-      <c r="W141" s="7"/>
-      <c r="X141" s="7"/>
-      <c r="Y141" s="7"/>
-      <c r="Z141" s="7"/>
-      <c r="AA141" s="7"/>
-      <c r="AB141" s="7"/>
-      <c r="AC141" s="7"/>
-      <c r="AD141" s="7"/>
-      <c r="AE141" s="7"/>
-      <c r="AF141" s="7"/>
-      <c r="AG141" s="7"/>
-      <c r="AH141" s="7"/>
-      <c r="AI141" s="7"/>
-      <c r="AJ141" s="7"/>
-      <c r="AK141" s="7"/>
-      <c r="AL141" s="7"/>
-      <c r="AM141" s="7"/>
-      <c r="AN141" s="7"/>
-      <c r="AO141" s="7"/>
-      <c r="AP141" s="7"/>
-      <c r="AQ141" s="7"/>
-      <c r="AR141" s="7"/>
-      <c r="AS141" s="5"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B142" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H142" s="5"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
-      <c r="Z142" s="5"/>
-      <c r="AA142" s="5"/>
-      <c r="AB142" s="5"/>
-      <c r="AC142" s="5"/>
-      <c r="AD142" s="5"/>
-      <c r="AE142" s="5"/>
-      <c r="AF142" s="5"/>
-      <c r="AG142" s="5"/>
-      <c r="AH142" s="5"/>
-      <c r="AI142" s="5"/>
-      <c r="AJ142" s="5"/>
-      <c r="AK142" s="5"/>
-      <c r="AL142" s="5"/>
-      <c r="AM142" s="5"/>
-      <c r="AN142" s="5"/>
-      <c r="AO142" s="5"/>
-      <c r="AP142" s="5"/>
-      <c r="AQ142" s="5"/>
-      <c r="AR142" s="5"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7"/>
+      <c r="R142" s="7"/>
+      <c r="S142" s="7"/>
+      <c r="T142" s="7"/>
+      <c r="U142" s="7"/>
+      <c r="V142" s="7"/>
+      <c r="W142" s="7"/>
+      <c r="X142" s="7"/>
+      <c r="Y142" s="7"/>
+      <c r="Z142" s="7"/>
+      <c r="AA142" s="7"/>
+      <c r="AB142" s="7"/>
+      <c r="AC142" s="7"/>
+      <c r="AD142" s="7"/>
+      <c r="AE142" s="7"/>
+      <c r="AF142" s="7"/>
+      <c r="AG142" s="7"/>
+      <c r="AH142" s="7"/>
+      <c r="AI142" s="7"/>
+      <c r="AJ142" s="7"/>
+      <c r="AK142" s="7"/>
+      <c r="AL142" s="7"/>
+      <c r="AM142" s="7"/>
+      <c r="AN142" s="7"/>
+      <c r="AO142" s="7"/>
+      <c r="AP142" s="7"/>
+      <c r="AQ142" s="7"/>
+      <c r="AR142" s="7"/>
       <c r="AS142" s="5"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>353</v>
+      <c r="B143" s="34" t="s">
+        <v>354</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F143" s="5" t="s">
-        <v>356</v>
-      </c>
+      <c r="F143" s="5"/>
       <c r="G143" s="5" t="s">
         <v>184</v>
       </c>
@@ -10011,403 +10019,405 @@
       <c r="AS143" s="5"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="5"/>
+      <c r="W144" s="5"/>
+      <c r="X144" s="5"/>
+      <c r="Y144" s="5"/>
+      <c r="Z144" s="5"/>
+      <c r="AA144" s="5"/>
+      <c r="AB144" s="5"/>
+      <c r="AC144" s="5"/>
+      <c r="AD144" s="5"/>
+      <c r="AE144" s="5"/>
+      <c r="AF144" s="5"/>
+      <c r="AG144" s="5"/>
+      <c r="AH144" s="5"/>
+      <c r="AI144" s="5"/>
+      <c r="AJ144" s="5"/>
+      <c r="AK144" s="5"/>
+      <c r="AL144" s="5"/>
+      <c r="AM144" s="5"/>
+      <c r="AN144" s="5"/>
+      <c r="AO144" s="5"/>
+      <c r="AP144" s="5"/>
+      <c r="AQ144" s="5"/>
+      <c r="AR144" s="5"/>
+      <c r="AS144" s="5"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
-      <c r="N144" s="7"/>
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="7"/>
-      <c r="R144" s="7"/>
-      <c r="S144" s="7"/>
-      <c r="T144" s="7"/>
-      <c r="U144" s="7"/>
-      <c r="V144" s="7"/>
-      <c r="W144" s="7"/>
-      <c r="X144" s="7"/>
-      <c r="Y144" s="7"/>
-      <c r="Z144" s="7"/>
-      <c r="AA144" s="7"/>
-      <c r="AB144" s="7"/>
-      <c r="AC144" s="7"/>
-      <c r="AD144" s="7"/>
-      <c r="AE144" s="7"/>
-      <c r="AF144" s="7"/>
-      <c r="AG144" s="7"/>
-      <c r="AH144" s="7"/>
-      <c r="AI144" s="7"/>
-      <c r="AJ144" s="7"/>
-      <c r="AK144" s="7"/>
-      <c r="AL144" s="7"/>
-      <c r="AM144" s="7"/>
-      <c r="AN144" s="7"/>
-      <c r="AO144" s="7"/>
-      <c r="AP144" s="7"/>
-      <c r="AQ144" s="7"/>
-      <c r="AR144" s="7"/>
-      <c r="AS144" s="5"/>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
-      <c r="Z145" s="5"/>
-      <c r="AA145" s="5"/>
-      <c r="AB145" s="5"/>
-      <c r="AC145" s="5"/>
-      <c r="AD145" s="5"/>
-      <c r="AE145" s="5"/>
-      <c r="AF145" s="5"/>
-      <c r="AG145" s="5"/>
-      <c r="AH145" s="5"/>
-      <c r="AI145" s="5"/>
-      <c r="AJ145" s="5"/>
-      <c r="AK145" s="5"/>
-      <c r="AL145" s="5"/>
-      <c r="AM145" s="5"/>
-      <c r="AN145" s="5"/>
-      <c r="AO145" s="5"/>
-      <c r="AP145" s="5"/>
-      <c r="AQ145" s="5"/>
-      <c r="AR145" s="5"/>
-      <c r="AS145" s="7"/>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="36" t="s">
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+      <c r="R145" s="7"/>
+      <c r="S145" s="7"/>
+      <c r="T145" s="7"/>
+      <c r="U145" s="7"/>
+      <c r="V145" s="7"/>
+      <c r="W145" s="7"/>
+      <c r="X145" s="7"/>
+      <c r="Y145" s="7"/>
+      <c r="Z145" s="7"/>
+      <c r="AA145" s="7"/>
+      <c r="AB145" s="7"/>
+      <c r="AC145" s="7"/>
+      <c r="AD145" s="7"/>
+      <c r="AE145" s="7"/>
+      <c r="AF145" s="7"/>
+      <c r="AG145" s="7"/>
+      <c r="AH145" s="7"/>
+      <c r="AI145" s="7"/>
+      <c r="AJ145" s="7"/>
+      <c r="AK145" s="7"/>
+      <c r="AL145" s="7"/>
+      <c r="AM145" s="7"/>
+      <c r="AN145" s="7"/>
+      <c r="AO145" s="7"/>
+      <c r="AP145" s="7"/>
+      <c r="AQ145" s="7"/>
+      <c r="AR145" s="7"/>
+      <c r="AS145" s="5"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="5"/>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="5"/>
+      <c r="S146" s="5"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="5"/>
+      <c r="W146" s="5"/>
+      <c r="X146" s="5"/>
+      <c r="Y146" s="5"/>
+      <c r="Z146" s="5"/>
+      <c r="AA146" s="5"/>
+      <c r="AB146" s="5"/>
+      <c r="AC146" s="5"/>
+      <c r="AD146" s="5"/>
+      <c r="AE146" s="5"/>
+      <c r="AF146" s="5"/>
+      <c r="AG146" s="5"/>
+      <c r="AH146" s="5"/>
+      <c r="AI146" s="5"/>
+      <c r="AJ146" s="5"/>
+      <c r="AK146" s="5"/>
+      <c r="AL146" s="5"/>
+      <c r="AM146" s="5"/>
+      <c r="AN146" s="5"/>
+      <c r="AO146" s="5"/>
+      <c r="AP146" s="5"/>
+      <c r="AQ146" s="5"/>
+      <c r="AR146" s="5"/>
+      <c r="AS146" s="7"/>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="C146" s="36"/>
-      <c r="D146" s="36"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="36"/>
-      <c r="G146" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="H146" s="36"/>
-      <c r="I146" s="36"/>
-      <c r="J146" s="36"/>
-      <c r="K146" s="36"/>
-      <c r="L146" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="M146" s="7"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="7"/>
-      <c r="R146" s="7"/>
-      <c r="S146" s="7"/>
-      <c r="T146" s="7"/>
-      <c r="U146" s="7"/>
-      <c r="V146" s="7"/>
-      <c r="W146" s="7"/>
-      <c r="X146" s="7"/>
-      <c r="Y146" s="7"/>
-      <c r="Z146" s="7"/>
-      <c r="AA146" s="7"/>
-      <c r="AB146" s="7"/>
-      <c r="AC146" s="7"/>
-      <c r="AD146" s="7"/>
-      <c r="AE146" s="7"/>
-      <c r="AF146" s="7"/>
-      <c r="AG146" s="7"/>
-      <c r="AH146" s="7"/>
-      <c r="AI146" s="7"/>
-      <c r="AJ146" s="7"/>
-      <c r="AK146" s="7"/>
-      <c r="AL146" s="7"/>
-      <c r="AM146" s="7"/>
-      <c r="AN146" s="7"/>
-      <c r="AO146" s="7"/>
-      <c r="AP146" s="7"/>
-      <c r="AQ146" s="7"/>
-      <c r="AR146" s="7"/>
-      <c r="AS146" s="5"/>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="19" t="s">
+      <c r="B147" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="H147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
+      <c r="L147" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="7"/>
+      <c r="T147" s="7"/>
+      <c r="U147" s="7"/>
+      <c r="V147" s="7"/>
+      <c r="W147" s="7"/>
+      <c r="X147" s="7"/>
+      <c r="Y147" s="7"/>
+      <c r="Z147" s="7"/>
+      <c r="AA147" s="7"/>
+      <c r="AB147" s="7"/>
+      <c r="AC147" s="7"/>
+      <c r="AD147" s="7"/>
+      <c r="AE147" s="7"/>
+      <c r="AF147" s="7"/>
+      <c r="AG147" s="7"/>
+      <c r="AH147" s="7"/>
+      <c r="AI147" s="7"/>
+      <c r="AJ147" s="7"/>
+      <c r="AK147" s="7"/>
+      <c r="AL147" s="7"/>
+      <c r="AM147" s="7"/>
+      <c r="AN147" s="7"/>
+      <c r="AO147" s="7"/>
+      <c r="AP147" s="7"/>
+      <c r="AQ147" s="7"/>
+      <c r="AR147" s="7"/>
+      <c r="AS147" s="5"/>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B147" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5"/>
-      <c r="V147" s="5"/>
-      <c r="W147" s="5"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
-      <c r="Z147" s="5"/>
-      <c r="AA147" s="5"/>
-      <c r="AB147" s="5"/>
-      <c r="AC147" s="5"/>
-      <c r="AD147" s="5"/>
-      <c r="AE147" s="5"/>
-      <c r="AF147" s="5"/>
-      <c r="AG147" s="5"/>
-      <c r="AH147" s="5"/>
-      <c r="AI147" s="5"/>
-      <c r="AJ147" s="5"/>
-      <c r="AK147" s="5"/>
-      <c r="AL147" s="5"/>
-      <c r="AM147" s="5"/>
-      <c r="AN147" s="5"/>
-      <c r="AO147" s="5"/>
-      <c r="AP147" s="5"/>
-      <c r="AQ147" s="5"/>
-      <c r="AR147" s="5"/>
-      <c r="AS147" s="5"/>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="37" t="s">
+      <c r="B148" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="5"/>
+      <c r="AG148" s="5"/>
+      <c r="AH148" s="5"/>
+      <c r="AI148" s="5"/>
+      <c r="AJ148" s="5"/>
+      <c r="AK148" s="5"/>
+      <c r="AL148" s="5"/>
+      <c r="AM148" s="5"/>
+      <c r="AN148" s="5"/>
+      <c r="AO148" s="5"/>
+      <c r="AP148" s="5"/>
+      <c r="AQ148" s="5"/>
+      <c r="AR148" s="5"/>
+      <c r="AS148" s="5"/>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="C148" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="D148" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="37"/>
-      <c r="L148" s="37"/>
-      <c r="M148" s="38"/>
-      <c r="N148" s="38"/>
-      <c r="O148" s="38"/>
-      <c r="P148" s="38"/>
-      <c r="Q148" s="38"/>
-      <c r="R148" s="38"/>
-      <c r="S148" s="38"/>
-      <c r="T148" s="38"/>
-      <c r="U148" s="38"/>
-      <c r="V148" s="38"/>
-      <c r="W148" s="38"/>
-      <c r="X148" s="38"/>
-      <c r="Y148" s="38"/>
-      <c r="Z148" s="38"/>
-      <c r="AA148" s="38"/>
-      <c r="AB148" s="38"/>
-      <c r="AC148" s="38"/>
-      <c r="AD148" s="38"/>
-      <c r="AE148" s="38"/>
-      <c r="AF148" s="38"/>
-      <c r="AG148" s="38"/>
-      <c r="AH148" s="38"/>
-      <c r="AI148" s="38"/>
-      <c r="AJ148" s="38"/>
-      <c r="AK148" s="38"/>
-      <c r="AL148" s="38"/>
-      <c r="AM148" s="38"/>
-      <c r="AN148" s="38"/>
-      <c r="AO148" s="38"/>
-      <c r="AP148" s="38"/>
-      <c r="AQ148" s="38"/>
-      <c r="AR148" s="38"/>
-      <c r="AS148" s="5"/>
-    </row>
-    <row r="149" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B149" s="19" t="s">
+      <c r="B149" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="C149" s="39" t="s">
+      <c r="C149" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="D149" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19" t="s">
+      <c r="D149" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="5"/>
-      <c r="U149" s="5"/>
-      <c r="V149" s="5"/>
-      <c r="W149" s="5"/>
-      <c r="X149" s="5"/>
-      <c r="Y149" s="5"/>
-      <c r="Z149" s="5"/>
-      <c r="AA149" s="5"/>
-      <c r="AB149" s="5"/>
-      <c r="AC149" s="5"/>
-      <c r="AD149" s="5"/>
-      <c r="AE149" s="5"/>
-      <c r="AF149" s="5"/>
-      <c r="AG149" s="5"/>
-      <c r="AH149" s="5"/>
-      <c r="AI149" s="5"/>
-      <c r="AJ149" s="5"/>
-      <c r="AK149" s="5"/>
-      <c r="AL149" s="5"/>
-      <c r="AM149" s="5"/>
-      <c r="AN149" s="5"/>
-      <c r="AO149" s="5"/>
-      <c r="AP149" s="5"/>
-      <c r="AQ149" s="5"/>
-      <c r="AR149" s="5"/>
-      <c r="AS149" s="7"/>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="H149" s="37"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="37"/>
+      <c r="K149" s="37"/>
+      <c r="L149" s="37"/>
+      <c r="M149" s="38"/>
+      <c r="N149" s="38"/>
+      <c r="O149" s="38"/>
+      <c r="P149" s="38"/>
+      <c r="Q149" s="38"/>
+      <c r="R149" s="38"/>
+      <c r="S149" s="38"/>
+      <c r="T149" s="38"/>
+      <c r="U149" s="38"/>
+      <c r="V149" s="38"/>
+      <c r="W149" s="38"/>
+      <c r="X149" s="38"/>
+      <c r="Y149" s="38"/>
+      <c r="Z149" s="38"/>
+      <c r="AA149" s="38"/>
+      <c r="AB149" s="38"/>
+      <c r="AC149" s="38"/>
+      <c r="AD149" s="38"/>
+      <c r="AE149" s="38"/>
+      <c r="AF149" s="38"/>
+      <c r="AG149" s="38"/>
+      <c r="AH149" s="38"/>
+      <c r="AI149" s="38"/>
+      <c r="AJ149" s="38"/>
+      <c r="AK149" s="38"/>
+      <c r="AL149" s="38"/>
+      <c r="AM149" s="38"/>
+      <c r="AN149" s="38"/>
+      <c r="AO149" s="38"/>
+      <c r="AP149" s="38"/>
+      <c r="AQ149" s="38"/>
+      <c r="AR149" s="38"/>
+      <c r="AS149" s="5"/>
+    </row>
+    <row r="150" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="C150" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="D150" s="42" t="s">
+      <c r="C150" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="D150" s="40" t="s">
         <v>372</v>
       </c>
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
       <c r="L150" s="19"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="6"/>
-      <c r="T150" s="6"/>
-      <c r="U150" s="6"/>
-      <c r="V150" s="6"/>
-      <c r="W150" s="6"/>
-      <c r="X150" s="6"/>
-      <c r="Y150" s="6"/>
-      <c r="Z150" s="6"/>
-      <c r="AA150" s="6"/>
-      <c r="AB150" s="6"/>
-      <c r="AC150" s="6"/>
-      <c r="AD150" s="6"/>
-      <c r="AE150" s="6"/>
-      <c r="AF150" s="6"/>
-      <c r="AG150" s="6"/>
-      <c r="AH150" s="6"/>
-      <c r="AI150" s="6"/>
-      <c r="AJ150" s="6"/>
-      <c r="AK150" s="6"/>
-      <c r="AL150" s="6"/>
-      <c r="AM150" s="6"/>
-      <c r="AN150" s="6"/>
-      <c r="AO150" s="6"/>
-      <c r="AP150" s="6"/>
-      <c r="AQ150" s="6"/>
-      <c r="AR150" s="6"/>
-      <c r="AS150" s="6"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="5"/>
+      <c r="AG150" s="5"/>
+      <c r="AH150" s="5"/>
+      <c r="AI150" s="5"/>
+      <c r="AJ150" s="5"/>
+      <c r="AK150" s="5"/>
+      <c r="AL150" s="5"/>
+      <c r="AM150" s="5"/>
+      <c r="AN150" s="5"/>
+      <c r="AO150" s="5"/>
+      <c r="AP150" s="5"/>
+      <c r="AQ150" s="5"/>
+      <c r="AR150" s="5"/>
+      <c r="AS150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="D151" s="21" t="s">
         <v>374</v>
       </c>
+      <c r="C151" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="D151" s="42" t="s">
+        <v>376</v>
+      </c>
       <c r="E151" s="19"/>
-      <c r="F151" s="19" t="s">
-        <v>375</v>
-      </c>
+      <c r="F151" s="19"/>
       <c r="G151" s="19" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -10452,20 +10462,22 @@
       <c r="A152" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>216</v>
+      <c r="B152" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>378</v>
       </c>
       <c r="E152" s="19"/>
       <c r="F152" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="G152" s="19"/>
+        <v>379</v>
+      </c>
+      <c r="G152" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="19"/>
@@ -10510,17 +10522,17 @@
         <v>129</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="19" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
@@ -10566,18 +10578,18 @@
       <c r="A154" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B154" s="34" t="s">
-        <v>380</v>
+      <c r="B154" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E154" s="19"/>
       <c r="F154" s="19" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G154" s="19"/>
       <c r="H154" s="19"/>
@@ -10623,18 +10635,18 @@
       <c r="A155" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>382</v>
+      <c r="B155" s="34" t="s">
+        <v>384</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
@@ -10681,17 +10693,17 @@
         <v>129</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
@@ -10738,17 +10750,17 @@
         <v>129</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E157" s="19"/>
       <c r="F157" s="19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
@@ -10795,17 +10807,17 @@
         <v>129</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E158" s="19"/>
       <c r="F158" s="19" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G158" s="19"/>
       <c r="H158" s="19"/>
@@ -10852,17 +10864,17 @@
         <v>129</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="19" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G159" s="19"/>
       <c r="H159" s="19"/>
@@ -10909,17 +10921,17 @@
         <v>129</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E160" s="19"/>
       <c r="F160" s="19" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G160" s="19"/>
       <c r="H160" s="19"/>
@@ -10966,17 +10978,17 @@
         <v>129</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E161" s="19"/>
       <c r="F161" s="19" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G161" s="19"/>
       <c r="H161" s="19"/>
@@ -11023,17 +11035,17 @@
         <v>129</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E162" s="19"/>
       <c r="F162" s="19" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
@@ -11080,17 +11092,17 @@
         <v>129</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E163" s="19"/>
       <c r="F163" s="19" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
@@ -11137,17 +11149,17 @@
         <v>129</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E164" s="19"/>
       <c r="F164" s="19" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
@@ -11194,17 +11206,17 @@
         <v>129</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E165" s="19"/>
       <c r="F165" s="19" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
@@ -11251,17 +11263,17 @@
         <v>129</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E166" s="19"/>
       <c r="F166" s="19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
@@ -11308,17 +11320,17 @@
         <v>129</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E167" s="19"/>
       <c r="F167" s="19" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
@@ -11364,22 +11376,20 @@
       <c r="A168" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B168" s="19" t="s">
-        <v>408</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D168" s="21" t="s">
+      <c r="B168" s="5" t="s">
         <v>410</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="E168" s="19"/>
       <c r="F168" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="G168" s="19" t="s">
-        <v>134</v>
-      </c>
+      <c r="G168" s="19"/>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
       <c r="J168" s="19"/>
@@ -11479,30 +11489,30 @@
       <c r="AS169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="43" t="s">
+      <c r="A170" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B170" s="43" t="s">
+      <c r="B170" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="C170" s="43" t="s">
+      <c r="C170" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="D170" s="43" t="s">
+      <c r="D170" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="E170" s="43"/>
-      <c r="F170" s="43" t="s">
+      <c r="E170" s="19"/>
+      <c r="F170" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G170" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="H170" s="43"/>
-      <c r="I170" s="43"/>
-      <c r="J170" s="43"/>
-      <c r="K170" s="43"/>
-      <c r="L170" s="43"/>
+      <c r="G170" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
+      <c r="L170" s="19"/>
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
       <c r="O170" s="6"/>
@@ -11538,30 +11548,30 @@
       <c r="AS170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="C171" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="D171" s="43" t="s">
         <v>422</v>
       </c>
-      <c r="D171" s="21" t="s">
+      <c r="E171" s="43"/>
+      <c r="F171" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="E171" s="19"/>
-      <c r="F171" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="G171" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
-      <c r="K171" s="19"/>
-      <c r="L171" s="19"/>
+      <c r="G171" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="H171" s="43"/>
+      <c r="I171" s="43"/>
+      <c r="J171" s="43"/>
+      <c r="K171" s="43"/>
+      <c r="L171" s="43"/>
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
       <c r="O171" s="6"/>
@@ -11601,17 +11611,17 @@
         <v>129</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E172" s="19"/>
       <c r="F172" s="19" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="G172" s="19" t="s">
         <v>134</v>
@@ -11833,13 +11843,25 @@
       <c r="AS175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="19"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="21"/>
+      <c r="A176" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>442</v>
+      </c>
       <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
+      <c r="F176" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="G176" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
       <c r="J176" s="19"/>
@@ -11880,28 +11902,18 @@
       <c r="AS176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B177" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="C177" s="44" t="s">
-        <v>441</v>
-      </c>
-      <c r="D177" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="E177" s="44"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="H177" s="44"/>
-      <c r="I177" s="44"/>
-      <c r="J177" s="44"/>
-      <c r="K177" s="44"/>
-      <c r="L177" s="44"/>
+      <c r="A177" s="19"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
+      <c r="L177" s="19"/>
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
       <c r="O177" s="6"/>
@@ -11937,18 +11949,28 @@
       <c r="AS177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="19"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
+      <c r="A178" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B178" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="C178" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="D178" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="E178" s="44"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="H178" s="44"/>
+      <c r="I178" s="44"/>
+      <c r="J178" s="44"/>
+      <c r="K178" s="44"/>
+      <c r="L178" s="44"/>
       <c r="M178" s="6"/>
       <c r="N178" s="6"/>
       <c r="O178" s="6"/>
@@ -11984,257 +12006,247 @@
       <c r="AS178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="36" t="s">
+      <c r="A179" s="19"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6"/>
+      <c r="T179" s="6"/>
+      <c r="U179" s="6"/>
+      <c r="V179" s="6"/>
+      <c r="W179" s="6"/>
+      <c r="X179" s="6"/>
+      <c r="Y179" s="6"/>
+      <c r="Z179" s="6"/>
+      <c r="AA179" s="6"/>
+      <c r="AB179" s="6"/>
+      <c r="AC179" s="6"/>
+      <c r="AD179" s="6"/>
+      <c r="AE179" s="6"/>
+      <c r="AF179" s="6"/>
+      <c r="AG179" s="6"/>
+      <c r="AH179" s="6"/>
+      <c r="AI179" s="6"/>
+      <c r="AJ179" s="6"/>
+      <c r="AK179" s="6"/>
+      <c r="AL179" s="6"/>
+      <c r="AM179" s="6"/>
+      <c r="AN179" s="6"/>
+      <c r="AO179" s="6"/>
+      <c r="AP179" s="6"/>
+      <c r="AQ179" s="6"/>
+      <c r="AR179" s="6"/>
+      <c r="AS179" s="6"/>
+    </row>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B179" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="C179" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="D179" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="E179" s="36"/>
-      <c r="F179" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="G179" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="H179" s="36"/>
-      <c r="I179" s="36"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="36"/>
-      <c r="L179" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="M179" s="7"/>
-      <c r="N179" s="7"/>
-      <c r="O179" s="7"/>
-      <c r="P179" s="7"/>
-      <c r="Q179" s="7"/>
-      <c r="R179" s="7"/>
-      <c r="S179" s="7"/>
-      <c r="T179" s="7"/>
-      <c r="U179" s="7"/>
-      <c r="V179" s="7"/>
-      <c r="W179" s="7"/>
-      <c r="X179" s="7"/>
-      <c r="Y179" s="7"/>
-      <c r="Z179" s="7"/>
-      <c r="AA179" s="7"/>
-      <c r="AB179" s="7"/>
-      <c r="AC179" s="7"/>
-      <c r="AD179" s="7"/>
-      <c r="AE179" s="7"/>
-      <c r="AF179" s="7"/>
-      <c r="AG179" s="7"/>
-      <c r="AH179" s="7"/>
-      <c r="AI179" s="7"/>
-      <c r="AJ179" s="7"/>
-      <c r="AK179" s="7"/>
-      <c r="AL179" s="7"/>
-      <c r="AM179" s="7"/>
-      <c r="AN179" s="7"/>
-      <c r="AO179" s="7"/>
-      <c r="AP179" s="7"/>
-      <c r="AQ179" s="7"/>
-      <c r="AR179" s="7"/>
-      <c r="AS179" s="5"/>
-    </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="19" t="s">
+      <c r="B180" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D180" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="E180" s="36"/>
+      <c r="F180" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="G180" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="H180" s="36"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="36"/>
+      <c r="K180" s="36"/>
+      <c r="L180" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="7"/>
+      <c r="R180" s="7"/>
+      <c r="S180" s="7"/>
+      <c r="T180" s="7"/>
+      <c r="U180" s="7"/>
+      <c r="V180" s="7"/>
+      <c r="W180" s="7"/>
+      <c r="X180" s="7"/>
+      <c r="Y180" s="7"/>
+      <c r="Z180" s="7"/>
+      <c r="AA180" s="7"/>
+      <c r="AB180" s="7"/>
+      <c r="AC180" s="7"/>
+      <c r="AD180" s="7"/>
+      <c r="AE180" s="7"/>
+      <c r="AF180" s="7"/>
+      <c r="AG180" s="7"/>
+      <c r="AH180" s="7"/>
+      <c r="AI180" s="7"/>
+      <c r="AJ180" s="7"/>
+      <c r="AK180" s="7"/>
+      <c r="AL180" s="7"/>
+      <c r="AM180" s="7"/>
+      <c r="AN180" s="7"/>
+      <c r="AO180" s="7"/>
+      <c r="AP180" s="7"/>
+      <c r="AQ180" s="7"/>
+      <c r="AR180" s="7"/>
+      <c r="AS180" s="5"/>
+    </row>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B180" s="19" t="s">
+      <c r="B181" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
+      <c r="L181" s="19"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="6"/>
+      <c r="T181" s="6"/>
+      <c r="U181" s="6"/>
+      <c r="V181" s="6"/>
+      <c r="W181" s="6"/>
+      <c r="X181" s="6"/>
+      <c r="Y181" s="6"/>
+      <c r="Z181" s="6"/>
+      <c r="AA181" s="6"/>
+      <c r="AB181" s="6"/>
+      <c r="AC181" s="6"/>
+      <c r="AD181" s="6"/>
+      <c r="AE181" s="6"/>
+      <c r="AF181" s="6"/>
+      <c r="AG181" s="6"/>
+      <c r="AH181" s="6"/>
+      <c r="AI181" s="6"/>
+      <c r="AJ181" s="6"/>
+      <c r="AK181" s="6"/>
+      <c r="AL181" s="6"/>
+      <c r="AM181" s="6"/>
+      <c r="AN181" s="6"/>
+      <c r="AO181" s="6"/>
+      <c r="AP181" s="6"/>
+      <c r="AQ181" s="6"/>
+      <c r="AR181" s="6"/>
+      <c r="AS181" s="6"/>
+    </row>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B182" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="C182" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="D182" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="E182" s="36"/>
+      <c r="F182" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="G182" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="C180" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="D180" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="19"/>
-      <c r="L180" s="19"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="6"/>
-      <c r="T180" s="6"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="6"/>
-      <c r="W180" s="6"/>
-      <c r="X180" s="6"/>
-      <c r="Y180" s="6"/>
-      <c r="Z180" s="6"/>
-      <c r="AA180" s="6"/>
-      <c r="AB180" s="6"/>
-      <c r="AC180" s="6"/>
-      <c r="AD180" s="6"/>
-      <c r="AE180" s="6"/>
-      <c r="AF180" s="6"/>
-      <c r="AG180" s="6"/>
-      <c r="AH180" s="6"/>
-      <c r="AI180" s="6"/>
-      <c r="AJ180" s="6"/>
-      <c r="AK180" s="6"/>
-      <c r="AL180" s="6"/>
-      <c r="AM180" s="6"/>
-      <c r="AN180" s="6"/>
-      <c r="AO180" s="6"/>
-      <c r="AP180" s="6"/>
-      <c r="AQ180" s="6"/>
-      <c r="AR180" s="6"/>
-      <c r="AS180" s="6"/>
-    </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B181" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="C181" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="D181" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="E181" s="36"/>
-      <c r="F181" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="G181" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="H181" s="36"/>
-      <c r="I181" s="36"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="36"/>
-      <c r="L181" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="M181" s="7"/>
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="7"/>
-      <c r="R181" s="7"/>
-      <c r="S181" s="7"/>
-      <c r="T181" s="7"/>
-      <c r="U181" s="7"/>
-      <c r="V181" s="7"/>
-      <c r="W181" s="7"/>
-      <c r="X181" s="7"/>
-      <c r="Y181" s="7"/>
-      <c r="Z181" s="7"/>
-      <c r="AA181" s="7"/>
-      <c r="AB181" s="7"/>
-      <c r="AC181" s="7"/>
-      <c r="AD181" s="7"/>
-      <c r="AE181" s="7"/>
-      <c r="AF181" s="7"/>
-      <c r="AG181" s="7"/>
-      <c r="AH181" s="7"/>
-      <c r="AI181" s="7"/>
-      <c r="AJ181" s="7"/>
-      <c r="AK181" s="7"/>
-      <c r="AL181" s="7"/>
-      <c r="AM181" s="7"/>
-      <c r="AN181" s="7"/>
-      <c r="AO181" s="7"/>
-      <c r="AP181" s="7"/>
-      <c r="AQ181" s="7"/>
-      <c r="AR181" s="7"/>
-      <c r="AS181" s="5"/>
-    </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B182" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="C182" s="41" t="s">
-        <v>456</v>
-      </c>
-      <c r="D182" s="45" t="s">
-        <v>457</v>
-      </c>
-      <c r="E182" s="45"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="19"/>
-      <c r="L182" s="19"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
-      <c r="O182" s="6"/>
-      <c r="P182" s="6"/>
-      <c r="Q182" s="6"/>
-      <c r="R182" s="6"/>
-      <c r="S182" s="6"/>
-      <c r="T182" s="6"/>
-      <c r="U182" s="6"/>
-      <c r="V182" s="6"/>
-      <c r="W182" s="6"/>
-      <c r="X182" s="6"/>
-      <c r="Y182" s="6"/>
-      <c r="Z182" s="6"/>
-      <c r="AA182" s="6"/>
-      <c r="AB182" s="6"/>
-      <c r="AC182" s="6"/>
-      <c r="AD182" s="6"/>
-      <c r="AE182" s="6"/>
-      <c r="AF182" s="6"/>
-      <c r="AG182" s="6"/>
-      <c r="AH182" s="6"/>
-      <c r="AI182" s="6"/>
-      <c r="AJ182" s="6"/>
-      <c r="AK182" s="6"/>
-      <c r="AL182" s="6"/>
-      <c r="AM182" s="6"/>
-      <c r="AN182" s="6"/>
-      <c r="AO182" s="6"/>
-      <c r="AP182" s="6"/>
-      <c r="AQ182" s="6"/>
-      <c r="AR182" s="6"/>
-      <c r="AS182" s="6"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="36"/>
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
+      <c r="L182" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="7"/>
+      <c r="R182" s="7"/>
+      <c r="S182" s="7"/>
+      <c r="T182" s="7"/>
+      <c r="U182" s="7"/>
+      <c r="V182" s="7"/>
+      <c r="W182" s="7"/>
+      <c r="X182" s="7"/>
+      <c r="Y182" s="7"/>
+      <c r="Z182" s="7"/>
+      <c r="AA182" s="7"/>
+      <c r="AB182" s="7"/>
+      <c r="AC182" s="7"/>
+      <c r="AD182" s="7"/>
+      <c r="AE182" s="7"/>
+      <c r="AF182" s="7"/>
+      <c r="AG182" s="7"/>
+      <c r="AH182" s="7"/>
+      <c r="AI182" s="7"/>
+      <c r="AJ182" s="7"/>
+      <c r="AK182" s="7"/>
+      <c r="AL182" s="7"/>
+      <c r="AM182" s="7"/>
+      <c r="AN182" s="7"/>
+      <c r="AO182" s="7"/>
+      <c r="AP182" s="7"/>
+      <c r="AQ182" s="7"/>
+      <c r="AR182" s="7"/>
+      <c r="AS182" s="5"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="C183" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="D183" s="46" t="s">
+      <c r="C183" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="E183" s="46"/>
+      <c r="D183" s="45" t="s">
+        <v>461</v>
+      </c>
+      <c r="E183" s="45"/>
       <c r="F183" s="19"/>
-      <c r="G183" s="19" t="s">
-        <v>134</v>
-      </c>
+      <c r="G183" s="19"/>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
       <c r="J183" s="19"/>
@@ -12279,13 +12291,13 @@
         <v>129</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D184" s="46" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E184" s="46"/>
       <c r="F184" s="19"/>
@@ -12336,13 +12348,13 @@
         <v>129</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D185" s="46" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E185" s="46"/>
       <c r="F185" s="19"/>
@@ -12388,31 +12400,68 @@
       <c r="AR185" s="6"/>
       <c r="AS185" s="6"/>
     </row>
-    <row r="186" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C186" s="47" t="s">
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B186" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="D186" s="48" t="s">
+      <c r="C186" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="E186" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="D186" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="E186" s="46"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6"/>
+      <c r="T186" s="6"/>
+      <c r="U186" s="6"/>
+      <c r="V186" s="6"/>
+      <c r="W186" s="6"/>
+      <c r="X186" s="6"/>
+      <c r="Y186" s="6"/>
+      <c r="Z186" s="6"/>
+      <c r="AA186" s="6"/>
+      <c r="AB186" s="6"/>
+      <c r="AC186" s="6"/>
+      <c r="AD186" s="6"/>
+      <c r="AE186" s="6"/>
+      <c r="AF186" s="6"/>
+      <c r="AG186" s="6"/>
+      <c r="AH186" s="6"/>
+      <c r="AI186" s="6"/>
+      <c r="AJ186" s="6"/>
+      <c r="AK186" s="6"/>
+      <c r="AL186" s="6"/>
+      <c r="AM186" s="6"/>
+      <c r="AN186" s="6"/>
+      <c r="AO186" s="6"/>
+      <c r="AP186" s="6"/>
+      <c r="AQ186" s="6"/>
+      <c r="AR186" s="6"/>
+      <c r="AS186" s="6"/>
     </row>
     <row r="187" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B187" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>471</v>
       </c>
       <c r="C187" s="47" t="s">
@@ -12421,165 +12470,128 @@
       <c r="D187" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5" t="s">
+      <c r="E187" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" s="6" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
-      <c r="O187" s="5"/>
-      <c r="P187" s="5"/>
-      <c r="Q187" s="5"/>
-      <c r="R187" s="5"/>
-      <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
-      <c r="U187" s="5"/>
-      <c r="V187" s="5"/>
-      <c r="W187" s="5"/>
-      <c r="X187" s="5"/>
-      <c r="Y187" s="5"/>
-      <c r="Z187" s="5"/>
-      <c r="AA187" s="5"/>
-      <c r="AB187" s="5"/>
-      <c r="AC187" s="5"/>
-      <c r="AD187" s="5"/>
-      <c r="AE187" s="5"/>
-      <c r="AF187" s="5"/>
-      <c r="AG187" s="5"/>
-      <c r="AH187" s="5"/>
-      <c r="AI187" s="5"/>
-      <c r="AJ187" s="5"/>
-      <c r="AK187" s="5"/>
-      <c r="AL187" s="5"/>
-      <c r="AM187" s="5"/>
-      <c r="AN187" s="5"/>
-      <c r="AO187" s="5"/>
-      <c r="AP187" s="5"/>
-      <c r="AQ187" s="5"/>
-      <c r="AR187" s="5"/>
-      <c r="AS187" s="7"/>
-    </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="36" t="s">
+      <c r="B188" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C188" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="D188" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+      <c r="J188" s="5"/>
+      <c r="K188" s="5"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="5"/>
+      <c r="N188" s="5"/>
+      <c r="O188" s="5"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="5"/>
+      <c r="S188" s="5"/>
+      <c r="T188" s="5"/>
+      <c r="U188" s="5"/>
+      <c r="V188" s="5"/>
+      <c r="W188" s="5"/>
+      <c r="X188" s="5"/>
+      <c r="Y188" s="5"/>
+      <c r="Z188" s="5"/>
+      <c r="AA188" s="5"/>
+      <c r="AB188" s="5"/>
+      <c r="AC188" s="5"/>
+      <c r="AD188" s="5"/>
+      <c r="AE188" s="5"/>
+      <c r="AF188" s="5"/>
+      <c r="AG188" s="5"/>
+      <c r="AH188" s="5"/>
+      <c r="AI188" s="5"/>
+      <c r="AJ188" s="5"/>
+      <c r="AK188" s="5"/>
+      <c r="AL188" s="5"/>
+      <c r="AM188" s="5"/>
+      <c r="AN188" s="5"/>
+      <c r="AO188" s="5"/>
+      <c r="AP188" s="5"/>
+      <c r="AQ188" s="5"/>
+      <c r="AR188" s="5"/>
+      <c r="AS188" s="7"/>
+    </row>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B188" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="C188" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="D188" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="E188" s="36"/>
-      <c r="F188" s="36"/>
-      <c r="G188" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="H188" s="36"/>
-      <c r="I188" s="36"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
-      <c r="L188" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="M188" s="7"/>
-      <c r="N188" s="7"/>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
-      <c r="Q188" s="7"/>
-      <c r="R188" s="7"/>
-      <c r="S188" s="7"/>
-      <c r="T188" s="7"/>
-      <c r="U188" s="7"/>
-      <c r="V188" s="7"/>
-      <c r="W188" s="7"/>
-      <c r="X188" s="7"/>
-      <c r="Y188" s="7"/>
-      <c r="Z188" s="7"/>
-      <c r="AA188" s="7"/>
-      <c r="AB188" s="7"/>
-      <c r="AC188" s="7"/>
-      <c r="AD188" s="7"/>
-      <c r="AE188" s="7"/>
-      <c r="AF188" s="7"/>
-      <c r="AG188" s="7"/>
-      <c r="AH188" s="7"/>
-      <c r="AI188" s="7"/>
-      <c r="AJ188" s="7"/>
-      <c r="AK188" s="7"/>
-      <c r="AL188" s="7"/>
-      <c r="AM188" s="7"/>
-      <c r="AN188" s="7"/>
-      <c r="AO188" s="7"/>
-      <c r="AP188" s="7"/>
-      <c r="AQ188" s="7"/>
-      <c r="AR188" s="7"/>
-      <c r="AS188" s="5"/>
-    </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B189" s="19" t="s">
+      <c r="B189" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="C189" s="20" t="s">
+      <c r="C189" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="D189" s="46" t="s">
+      <c r="D189" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="E189" s="46"/>
-      <c r="F189" s="19" t="s">
+      <c r="E189" s="36"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="G189" s="19"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="6"/>
-      <c r="N189" s="6"/>
-      <c r="O189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="6"/>
-      <c r="R189" s="6"/>
-      <c r="S189" s="6"/>
-      <c r="T189" s="6"/>
-      <c r="U189" s="6"/>
-      <c r="V189" s="6"/>
-      <c r="W189" s="6"/>
-      <c r="X189" s="6"/>
-      <c r="Y189" s="6"/>
-      <c r="Z189" s="6"/>
-      <c r="AA189" s="6"/>
-      <c r="AB189" s="6"/>
-      <c r="AC189" s="6"/>
-      <c r="AD189" s="6"/>
-      <c r="AE189" s="6"/>
-      <c r="AF189" s="6"/>
-      <c r="AG189" s="6"/>
-      <c r="AH189" s="6"/>
-      <c r="AI189" s="6"/>
-      <c r="AJ189" s="6"/>
-      <c r="AK189" s="6"/>
-      <c r="AL189" s="6"/>
-      <c r="AM189" s="6"/>
-      <c r="AN189" s="6"/>
-      <c r="AO189" s="6"/>
-      <c r="AP189" s="6"/>
-      <c r="AQ189" s="6"/>
-      <c r="AR189" s="6"/>
-      <c r="AS189" s="6"/>
+      <c r="H189" s="36"/>
+      <c r="I189" s="36"/>
+      <c r="J189" s="36"/>
+      <c r="K189" s="36"/>
+      <c r="L189" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7"/>
+      <c r="R189" s="7"/>
+      <c r="S189" s="7"/>
+      <c r="T189" s="7"/>
+      <c r="U189" s="7"/>
+      <c r="V189" s="7"/>
+      <c r="W189" s="7"/>
+      <c r="X189" s="7"/>
+      <c r="Y189" s="7"/>
+      <c r="Z189" s="7"/>
+      <c r="AA189" s="7"/>
+      <c r="AB189" s="7"/>
+      <c r="AC189" s="7"/>
+      <c r="AD189" s="7"/>
+      <c r="AE189" s="7"/>
+      <c r="AF189" s="7"/>
+      <c r="AG189" s="7"/>
+      <c r="AH189" s="7"/>
+      <c r="AI189" s="7"/>
+      <c r="AJ189" s="7"/>
+      <c r="AK189" s="7"/>
+      <c r="AL189" s="7"/>
+      <c r="AM189" s="7"/>
+      <c r="AN189" s="7"/>
+      <c r="AO189" s="7"/>
+      <c r="AP189" s="7"/>
+      <c r="AQ189" s="7"/>
+      <c r="AR189" s="7"/>
+      <c r="AS189" s="5"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="19" t="s">
@@ -12639,20 +12651,28 @@
       <c r="AS190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B191" s="36"/>
-      <c r="C191" s="36"/>
-      <c r="D191" s="36"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="36"/>
-      <c r="J191" s="36"/>
-      <c r="K191" s="36"/>
-      <c r="L191" s="36"/>
+      <c r="A191" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="D191" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="E191" s="46"/>
+      <c r="F191" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="19"/>
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
@@ -12687,7 +12707,55 @@
       <c r="AR191" s="6"/>
       <c r="AS191" s="6"/>
     </row>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B192" s="36"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="36"/>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
+      <c r="L192" s="36"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+      <c r="R192" s="6"/>
+      <c r="S192" s="6"/>
+      <c r="T192" s="6"/>
+      <c r="U192" s="6"/>
+      <c r="V192" s="6"/>
+      <c r="W192" s="6"/>
+      <c r="X192" s="6"/>
+      <c r="Y192" s="6"/>
+      <c r="Z192" s="6"/>
+      <c r="AA192" s="6"/>
+      <c r="AB192" s="6"/>
+      <c r="AC192" s="6"/>
+      <c r="AD192" s="6"/>
+      <c r="AE192" s="6"/>
+      <c r="AF192" s="6"/>
+      <c r="AG192" s="6"/>
+      <c r="AH192" s="6"/>
+      <c r="AI192" s="6"/>
+      <c r="AJ192" s="6"/>
+      <c r="AK192" s="6"/>
+      <c r="AL192" s="6"/>
+      <c r="AM192" s="6"/>
+      <c r="AN192" s="6"/>
+      <c r="AO192" s="6"/>
+      <c r="AP192" s="6"/>
+      <c r="AQ192" s="6"/>
+      <c r="AR192" s="6"/>
+      <c r="AS192" s="6"/>
+    </row>
     <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12748,12 +12816,12 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D182:E182"/>
     <mergeCell ref="D183:E183"/>
     <mergeCell ref="D184:E184"/>
     <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D186:E186"/>
     <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -12788,7 +12856,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>1</v>
@@ -12819,16 +12887,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="53" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E2" s="54"/>
       <c r="F2" s="52"/>
@@ -12850,16 +12918,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="53" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E3" s="54"/>
       <c r="F3" s="52"/>
@@ -12881,16 +12949,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="55" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
@@ -12912,16 +12980,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="55" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E5" s="52"/>
       <c r="F5" s="52"/>
@@ -13023,25 +13091,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="56" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F1" s="56" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H1" s="52"/>
       <c r="I1" s="52"/>
@@ -13065,24 +13133,24 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="55" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C2" s="57" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-01-19  10-37</v>
+        <v>2023-08-22  11-52</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F2" s="52"/>
       <c r="G2" s="55" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>

--- a/forms/app/pcime_c_followup.xlsx
+++ b/forms/app/pcime_c_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="516">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -232,6 +232,9 @@
     <t xml:space="preserve">contact</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">db:person</t>
   </si>
   <si>
@@ -404,9 +407,6 @@
   </si>
   <si>
     <t xml:space="preserve">has_last_visit_constant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
   </si>
   <si>
     <t xml:space="preserve">if(${t_last_visit_temperature}!= '' or ${t_last_visit_weight}!= '' or ${t_last_visit_child_brachial_perimeter}!= '' or ${t_resp_rate}!= '','yes','no')</t>
@@ -709,7 +709,7 @@
     <t xml:space="preserve">L'enfant a-t-il reçu sa dose de médicament ?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">s_note_congrats</t>
@@ -2236,17 +2236,16 @@
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E116" activeCellId="0" sqref="E116"/>
+      <selection pane="bottomLeft" activeCell="G131" activeCellId="0" sqref="G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="59.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="15.66"/>
@@ -3416,8 +3415,12 @@
       <c r="B21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -3462,23 +3465,23 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="8"/>
@@ -3486,7 +3489,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="5"/>
@@ -3529,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -3583,13 +3586,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -3640,13 +3643,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -3697,13 +3700,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -3751,12 +3754,12 @@
     </row>
     <row r="27" s="7" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3808,44 +3811,44 @@
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="I30" s="18"/>
       <c r="J30" s="17"/>
       <c r="K30" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M30" s="18"/>
       <c r="N30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
       <c r="I31" s="18"/>
       <c r="J31" s="17"/>
       <c r="K31" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M31" s="18"/>
       <c r="N31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
@@ -3856,7 +3859,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="9"/>
       <c r="K32" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="8"/>
@@ -3895,16 +3898,16 @@
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -3913,7 +3916,7 @@
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
       <c r="K33" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="8"/>
@@ -3952,13 +3955,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="19"/>
@@ -3968,7 +3971,7 @@
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
       <c r="K34" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="8"/>
@@ -4007,13 +4010,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="19"/>
@@ -4023,7 +4026,7 @@
       <c r="I35" s="20"/>
       <c r="J35" s="21"/>
       <c r="K35" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="8"/>
@@ -4062,16 +4065,16 @@
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -4080,7 +4083,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="8"/>
@@ -4119,16 +4122,16 @@
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -4137,7 +4140,7 @@
       <c r="I37" s="23"/>
       <c r="J37" s="24"/>
       <c r="K37" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="8"/>
@@ -4176,19 +4179,19 @@
     </row>
     <row r="38" s="30" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -4196,7 +4199,7 @@
       <c r="I38" s="26"/>
       <c r="J38" s="26"/>
       <c r="K38" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
@@ -4235,10 +4238,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
@@ -4249,7 +4252,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="8"/>
@@ -4288,10 +4291,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -4302,7 +4305,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="9"/>
       <c r="K40" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="8"/>
@@ -4341,10 +4344,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
@@ -4355,7 +4358,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="9"/>
       <c r="K41" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="8"/>
@@ -4394,10 +4397,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
@@ -4408,7 +4411,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="9"/>
       <c r="K42" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="8"/>
@@ -4447,10 +4450,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
@@ -4461,7 +4464,7 @@
       <c r="I43" s="8"/>
       <c r="J43" s="9"/>
       <c r="K43" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="8"/>
@@ -4547,13 +4550,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="5"/>
@@ -4602,13 +4605,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="5"/>
@@ -5005,10 +5008,10 @@
         <v>147</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="29" t="s">
@@ -5526,7 +5529,7 @@
     </row>
     <row r="62" s="30" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
@@ -5622,7 +5625,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -5787,7 +5790,7 @@
         <v>183</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
@@ -6017,7 +6020,7 @@
         <v>199</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>188</v>
@@ -6180,7 +6183,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6400,7 +6403,7 @@
         <v>216</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5" t="s">
@@ -6459,7 +6462,7 @@
         <v>219</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
@@ -6518,7 +6521,7 @@
         <v>222</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
@@ -6577,7 +6580,7 @@
         <v>225</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
@@ -6636,7 +6639,7 @@
         <v>228</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5" t="s">
@@ -6695,7 +6698,7 @@
         <v>230</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
@@ -6799,7 +6802,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -6963,9 +6966,7 @@
       <c r="D88" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -7021,7 +7022,7 @@
         <v>241</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5" t="s">
@@ -7080,7 +7081,7 @@
         <v>244</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5" t="s">
@@ -7139,7 +7140,7 @@
         <v>247</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5" t="s">
@@ -7198,7 +7199,7 @@
         <v>250</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
@@ -7257,7 +7258,7 @@
         <v>253</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5" t="s">
@@ -7304,7 +7305,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7524,7 +7525,7 @@
         <v>260</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5" t="s">
@@ -7583,7 +7584,7 @@
         <v>263</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5" t="s">
@@ -7642,7 +7643,7 @@
         <v>266</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5" t="s">
@@ -7701,7 +7702,7 @@
         <v>269</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5" t="s">
@@ -7760,7 +7761,7 @@
         <v>272</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5" t="s">
@@ -7807,7 +7808,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -7972,7 +7973,7 @@
         <v>279</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -8019,7 +8020,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -8186,7 +8187,7 @@
         <v>287</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5" t="s">
@@ -8290,7 +8291,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -8514,7 +8515,7 @@
         <v>303</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -8688,7 +8689,9 @@
       <c r="F119" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G119" s="7"/>
+      <c r="G119" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -8730,7 +8733,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B120" s="34" t="s">
         <v>315</v>
@@ -8842,7 +8845,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -8995,7 +8998,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B125" s="34" t="s">
         <v>323</v>
@@ -9052,7 +9055,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -9148,7 +9151,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -9370,7 +9373,7 @@
         <v>332</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5" t="s">
@@ -9484,7 +9487,7 @@
         <v>338</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5" t="s">
@@ -9531,7 +9534,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -9698,7 +9701,7 @@
         <v>345</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5" t="s">
@@ -9757,7 +9760,7 @@
         <v>348</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>349</v>
@@ -9806,7 +9809,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -9973,7 +9976,7 @@
         <v>356</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5" t="s">
@@ -10032,7 +10035,7 @@
         <v>359</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>360</v>
@@ -10081,7 +10084,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -10175,15 +10178,19 @@
       <c r="AR146" s="5"/>
       <c r="AS146" s="7"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B147" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="C147" s="36"/>
-      <c r="D147" s="36"/>
+      <c r="C147" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="E147" s="36"/>
       <c r="F147" s="36"/>
       <c r="G147" s="36" t="s">
@@ -12471,7 +12478,7 @@
         <v>473</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>184</v>
@@ -12709,7 +12716,7 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B192" s="36"/>
       <c r="C192" s="36"/>
@@ -12890,7 +12897,7 @@
         <v>492</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>493</v>
@@ -13140,7 +13147,7 @@
       </c>
       <c r="C2" s="57" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-08-22  11-52</v>
+        <v>2024-07-12  15-01</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>513</v>
